--- a/06_Relazionale_v1.xlsx
+++ b/06_Relazionale_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Progetto-Laboratorio-BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansitos-Notebook\Documents\GitHub\Progetto-Laboratorio-BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4BBF8-1E41-4C3A-B3C8-96E7D97C6DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79A825A-A17C-4728-ACD6-A558C7BE9AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="30">
   <si>
     <t>SCHEMA RELAZIONALE v1 from ER_ristrutturato_v1</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>ENTITÀ</t>
+  </si>
+  <si>
+    <t>SCHEMA RELAZIONALE v1 from ER_ristrutturato_v1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +154,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -521,39 +539,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,85 +677,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,24 +969,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="B7:C9"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="21" width="16.85546875" customWidth="1"/>
-    <col min="22" max="28" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="21" width="16.88671875" customWidth="1"/>
+    <col min="22" max="28" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -965,7 +1003,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -980,104 +1018,104 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1092,7 +1130,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1107,7 +1145,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1122,105 +1160,105 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="33" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1235,7 +1273,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1250,7 +1288,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1265,44 +1303,44 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I22" s="1"/>
@@ -1311,52 +1349,52 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1371,7 +1409,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1386,7 +1424,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1401,106 +1439,106 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="32"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="15"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="15"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1513,7 +1551,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1526,7 +1564,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1541,7 +1579,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1556,7 +1594,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1571,7 +1609,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1586,7 +1624,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1602,7 +1640,8 @@
       <c r="M40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="H29:M29"/>
